--- a/data/trans_camb/IP26C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP26C_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 17,79</t>
+          <t>3,4; 18,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 8,16</t>
+          <t>-5,64; 8,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 19,82</t>
+          <t>-0,37; 17,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 6,98</t>
+          <t>-9,07; 6,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 3,88</t>
+          <t>-13,38; 4,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 4,89</t>
+          <t>-12,63; 4,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 9,77</t>
+          <t>-1,29; 10,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 2,95</t>
+          <t>-7,66; 2,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 8,21</t>
+          <t>-4,48; 8,69</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,09; 435,0</t>
+          <t>28,33; 504,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,61; 209,61</t>
+          <t>-62,64; 215,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 486,42</t>
+          <t>-8,23; 483,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,27; 80,06</t>
+          <t>-55,37; 69,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,25; 50,53</t>
+          <t>-73,37; 51,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,39; 55,12</t>
+          <t>-74,34; 57,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 129,38</t>
+          <t>-10,24; 140,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,32; 36,86</t>
+          <t>-59,79; 42,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,88; 110,49</t>
+          <t>-37,63; 106,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,41</t>
+          <t>-2,35; 3,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,22</t>
+          <t>-2,96; 3,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,19</t>
+          <t>-2,5; 4,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 3,14</t>
+          <t>-3,64; 3,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 1,23</t>
+          <t>-5,43; 1,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 1,79</t>
+          <t>-4,95; 2,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,78</t>
+          <t>-2,34; 2,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 1,2</t>
+          <t>-3,19; 1,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,14</t>
+          <t>-2,89; 2,26</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 40,26</t>
+          <t>-21,76; 46,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 40,83</t>
+          <t>-27,5; 37,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 49,45</t>
+          <t>-23,31; 49,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 32,15</t>
+          <t>-27,51; 37,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 12,71</t>
+          <t>-39,77; 15,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,5; 18,75</t>
+          <t>-36,42; 23,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 29,55</t>
+          <t>-20,33; 26,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 12,12</t>
+          <t>-27,65; 13,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 22,14</t>
+          <t>-24,86; 24,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 5,65</t>
+          <t>-5,34; 5,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 4,22</t>
+          <t>-5,65; 4,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 7,4</t>
+          <t>-3,46; 8,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 1,15</t>
+          <t>-9,3; 1,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 4,15</t>
+          <t>-6,71; 4,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 2,71</t>
+          <t>-8,55; 2,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 1,51</t>
+          <t>-5,78; 1,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 2,6</t>
+          <t>-5,04; 2,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 4,14</t>
+          <t>-4,25; 3,85</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,9; 84,82</t>
+          <t>-40,83; 80,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 60,37</t>
+          <t>-44,51; 65,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,03; 99,16</t>
+          <t>-28,33; 109,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-63,41; 19,07</t>
+          <t>-65,49; 13,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,94; 47,29</t>
+          <t>-49,93; 54,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,72; 33,34</t>
+          <t>-62,2; 26,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 18,23</t>
+          <t>-45,29; 22,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,96; 30,84</t>
+          <t>-41,57; 26,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 49,2</t>
+          <t>-33,62; 45,98</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,89</t>
+          <t>-0,82; 4,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,44</t>
+          <t>-2,75; 2,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,77</t>
+          <t>-0,92; 4,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,69</t>
+          <t>-3,96; 1,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 0,59</t>
+          <t>-4,88; 0,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 0,54</t>
+          <t>-5,16; 0,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,92</t>
+          <t>-1,73; 2,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,69</t>
+          <t>-3,17; 0,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,87</t>
+          <t>-1,89; 2,07</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 48,84</t>
+          <t>-8,19; 50,53</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 30,3</t>
+          <t>-25,69; 27,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 59,62</t>
+          <t>-9,37; 56,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 16,83</t>
+          <t>-30,93; 15,53</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,78; 6,61</t>
+          <t>-38,04; 4,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 5,46</t>
+          <t>-38,61; 2,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 20,24</t>
+          <t>-15,07; 23,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 7,34</t>
+          <t>-27,39; 7,65</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 19,86</t>
+          <t>-16,64; 21,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP26C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP26C_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,64; 6,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,35; 4,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,86; 2,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,47; 17,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,68; 7,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 16,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 9,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,14; 3,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,5; 7,98</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>150,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,61%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,15; 67,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,19; 46,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,42; 36,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,46; 440,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,03; 215,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,48; 399,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,48; 131,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,75; 48,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,33; 97,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,1</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>-0,74</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 18,15</t>
+          <t>-3,87; 3,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 8,38</t>
+          <t>-5,06; 1,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 17,6</t>
+          <t>-5,41; 1,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 6,45</t>
+          <t>-2,56; 3,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 4,04</t>
+          <t>-3,51; 2,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 4,65</t>
+          <t>-2,78; 3,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 10,23</t>
+          <t>-2,27; 2,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 2,8</t>
+          <t>-3,34; 1,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 8,69</t>
+          <t>-3,25; 1,64</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>150,12%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>-17,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>122,25%</t>
+          <t>-17,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,65%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-35,67%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,88%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-21,78%</t>
+          <t>-9,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>-7,05%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,33; 504,9</t>
+          <t>-29,47; 33,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,64; 215,34</t>
+          <t>-37,84; 13,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 483,4</t>
+          <t>-41,35; 14,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,37; 69,39</t>
+          <t>-23,12; 42,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,37; 51,31</t>
+          <t>-30,29; 34,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,34; 57,16</t>
+          <t>-24,69; 47,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 140,53</t>
+          <t>-19,13; 26,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,79; 42,04</t>
+          <t>-27,94; 13,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,63; 106,43</t>
+          <t>-28,23; 16,62</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 3,7</t>
+          <t>-8,9; 1,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 3,08</t>
+          <t>-6,93; 3,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 4,16</t>
+          <t>-7,95; 2,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,54</t>
+          <t>-5,65; 5,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 1,44</t>
+          <t>-6,43; 3,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 2,15</t>
+          <t>-4,06; 7,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,49</t>
+          <t>-5,57; 1,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,25</t>
+          <t>-5,03; 2,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,26</t>
+          <t>-4,24; 3,06</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>-34,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>-13,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>-24,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-17,42%</t>
+          <t>-9,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,03%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>-17,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-9,36%</t>
+          <t>-12,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
+          <t>-3,09%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 46,34</t>
+          <t>-65,78; 19,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,5; 37,96</t>
+          <t>-51,21; 43,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 49,08</t>
+          <t>-58,39; 25,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 37,13</t>
+          <t>-43,55; 76,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 15,51</t>
+          <t>-48,59; 53,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,42; 23,55</t>
+          <t>-34,69; 90,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 26,69</t>
+          <t>-45,06; 19,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 13,73</t>
+          <t>-39,69; 31,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 24,97</t>
+          <t>-33,44; 34,43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 5,72</t>
+          <t>-3,92; 1,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 4,51</t>
+          <t>-4,95; 0,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 8,07</t>
+          <t>-5,46; -0,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 1,02</t>
+          <t>-1,17; 3,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 4,2</t>
+          <t>-2,62; 2,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 2,2</t>
+          <t>-1,19; 4,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 1,86</t>
+          <t>-1,64; 1,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 2,19</t>
+          <t>-2,97; 0,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 3,85</t>
+          <t>-2,34; 1,36</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>-10,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-9,49%</t>
+          <t>-19,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>-22,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-34,09%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,95%</t>
+          <t>-1,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-24,27%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-17,4%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-12,11%</t>
+          <t>-11,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>-4,73%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 80,03</t>
+          <t>-30,1; 14,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,51; 65,91</t>
+          <t>-38,25; 3,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,33; 109,03</t>
+          <t>-43,1; 0,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-65,49; 13,19</t>
+          <t>-11,18; 45,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,93; 54,29</t>
+          <t>-24,66; 27,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,2; 26,48</t>
+          <t>-11,33; 52,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-45,29; 22,81</t>
+          <t>-14,4; 20,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 26,16</t>
+          <t>-25,96; 6,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,62; 45,98</t>
+          <t>-20,34; 13,98</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-2,16</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-1,15</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 4,18</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 2,29</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 4,66</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 1,6</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; 0,5</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 0,31</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 2,14</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; 0,71</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 2,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>15,66%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-1,47%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>20,14%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-10,45%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-19,08%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-18,59%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-10,95%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-0,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; 50,53</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-25,69; 27,18</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-9,37; 56,29</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-30,93; 15,53</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-38,04; 4,96</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-38,61; 2,69</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-15,07; 23,1</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-27,39; 7,65</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-16,64; 21,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
